--- a/Gruppe9innlevering 1/vedlegg/risikoplan.xlsx
+++ b/Gruppe9innlevering 1/vedlegg/risikoplan.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="16360" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="24860" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +155,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,8 +179,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -185,17 +195,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,57 +542,57 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="41.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
@@ -590,12 +604,12 @@
       <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -607,12 +621,12 @@
       <c r="D7" s="3">
         <v>5.6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3">
@@ -624,12 +638,12 @@
       <c r="D8" s="3">
         <v>4.8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -641,12 +655,12 @@
       <c r="D9" s="3">
         <v>5.6</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
@@ -658,12 +672,12 @@
       <c r="D10" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
@@ -675,12 +689,12 @@
       <c r="D11" s="3">
         <v>4.8</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3">
@@ -692,12 +706,12 @@
       <c r="D12" s="3">
         <v>4.2</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3">
@@ -709,12 +723,12 @@
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="3">
@@ -726,12 +740,12 @@
       <c r="D14" s="3">
         <v>2.4</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3">
@@ -743,12 +757,12 @@
       <c r="D15" s="3">
         <v>1.6</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3">
@@ -760,12 +774,12 @@
       <c r="D16" s="3">
         <v>0.9</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
@@ -777,7 +791,7 @@
       <c r="D17" s="3">
         <v>0.5</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -785,6 +799,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
